--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2010966.622113161</v>
+        <v>2006298.286676501</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2295956.10121807</v>
+        <v>2310564.143223169</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8785093.431239903</v>
+        <v>8789364.181047875</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5833034752181</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>116.6183240745771</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>36.14402025557014</v>
       </c>
       <c r="F3" t="n">
-        <v>71.24719361297572</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>41.21443043077672</v>
+        <v>25.52186057040797</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -911,7 +911,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>188.1060298540556</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>312.0024557865728</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149.5779643569157</v>
+        <v>51.34036537190071</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="T7" t="n">
-        <v>227.811947911804</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>154.9300311410521</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>385.6554005569279</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>32.09526662197208</v>
+        <v>55.60233870671191</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>177.8771190251041</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1385,10 +1385,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414333</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404346</v>
+        <v>39.83460586322688</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142884</v>
@@ -1594,7 +1594,7 @@
         <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.8896660972072</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1613,7 +1613,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,7 +1622,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>28.84940926028746</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404346</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1667,13 +1667,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>162.3545220010911</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="21">
@@ -2615,7 +2615,7 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>34.87468546325172</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>64.0754390361386</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386986</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>258.8837771665143</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799146</v>
+        <v>265.556883668935</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190365</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>282.3655247697376</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>278.6711586412924</v>
+        <v>293.0012941303129</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135899</v>
+        <v>204.8123861026103</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>20.92391191189584</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>48.81858568179597</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059311</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>122.835232954163</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879324</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>236.929075365811</v>
+        <v>251.2592108548315</v>
       </c>
       <c r="X32" t="n">
-        <v>255.1981097006893</v>
+        <v>269.5282451897098</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730205</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880388</v>
+        <v>67.32610467782429</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908629</v>
+        <v>52.4732329281067</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092602</v>
+        <v>38.04694813994642</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380513</v>
+        <v>37.97339019282553</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3927061235724</v>
+        <v>39.7228416125928</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596453</v>
+        <v>50.54167953498494</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253657</v>
+        <v>37.89393170155698</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708503</v>
+        <v>15.73364728272891</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.632145647184828</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369174</v>
+        <v>84.75808915271215</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0018919978638</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249337</v>
+        <v>166.5545700139541</v>
       </c>
       <c r="V34" t="n">
-        <v>132.9595824117996</v>
+        <v>147.2897179008201</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325498</v>
+        <v>164.4672642215702</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3795496792623</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593869</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.128086467796</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>276.8820346956118</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D41" t="n">
-        <v>269.225005709012</v>
+        <v>285.1198780252672</v>
       </c>
       <c r="E41" t="n">
-        <v>286.195977848134</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>300.3637822988351</v>
+        <v>103.9206694531741</v>
       </c>
       <c r="G41" t="n">
-        <v>296.6694161703899</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H41" t="n">
-        <v>208.4805081426873</v>
+        <v>224.3753804589425</v>
       </c>
       <c r="I41" t="n">
-        <v>24.59203395197288</v>
+        <v>40.48690626822805</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.486707721873</v>
+        <v>68.38158003812818</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9038846296906</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U41" t="n">
-        <v>97.18365696382853</v>
+        <v>156.7283627995156</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W41" t="n">
-        <v>254.9273328949085</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>273.1963672297868</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y41" t="n">
-        <v>280.164090202118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99422671790133</v>
+        <v>86.8890990341565</v>
       </c>
       <c r="C43" t="n">
-        <v>56.14135496818373</v>
+        <v>72.03622728443891</v>
       </c>
       <c r="D43" t="n">
-        <v>41.71507018002346</v>
+        <v>57.60994249627863</v>
       </c>
       <c r="E43" t="n">
-        <v>41.64151223290257</v>
+        <v>57.53638454915775</v>
       </c>
       <c r="F43" t="n">
-        <v>43.39096365266984</v>
+        <v>59.28583596892501</v>
       </c>
       <c r="G43" t="n">
-        <v>54.20980157506197</v>
+        <v>70.10467389131715</v>
       </c>
       <c r="H43" t="n">
-        <v>41.56205374163402</v>
+        <v>57.45692605788919</v>
       </c>
       <c r="I43" t="n">
-        <v>19.40176932280595</v>
+        <v>35.29664163906112</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.30026768726187</v>
+        <v>26.19514000351704</v>
       </c>
       <c r="S43" t="n">
-        <v>88.42621119278918</v>
+        <v>104.3210835090444</v>
       </c>
       <c r="T43" t="n">
-        <v>121.0001495269613</v>
+        <v>136.8950218432165</v>
       </c>
       <c r="U43" t="n">
-        <v>170.2226920540311</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9578399408971</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W43" t="n">
-        <v>168.1353862616472</v>
+        <v>184.0302585779024</v>
       </c>
       <c r="X43" t="n">
-        <v>119.3778072083598</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5192287850361</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.128086467796</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>276.8820346956118</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>269.225005709012</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E44" t="n">
-        <v>286.195977848134</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>300.3637822988351</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
-        <v>296.6694161703899</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>208.4805081426873</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>24.59203395197288</v>
+        <v>40.48690626822798</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>32.25021989836181</v>
+        <v>68.38158003812811</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>226.3240294170299</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>254.9273328949085</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>273.1963672297868</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
-        <v>280.164090202118</v>
+        <v>87.68497362213523</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.99422671790133</v>
+        <v>86.88909903415643</v>
       </c>
       <c r="C46" t="n">
-        <v>56.14135496818373</v>
+        <v>72.03622728443884</v>
       </c>
       <c r="D46" t="n">
-        <v>41.71507018002346</v>
+        <v>57.60994249627856</v>
       </c>
       <c r="E46" t="n">
-        <v>41.64151223290257</v>
+        <v>57.53638454915767</v>
       </c>
       <c r="F46" t="n">
-        <v>43.39096365266984</v>
+        <v>59.28583596892494</v>
       </c>
       <c r="G46" t="n">
-        <v>54.20980157506197</v>
+        <v>70.10467389131708</v>
       </c>
       <c r="H46" t="n">
-        <v>41.56205374163402</v>
+        <v>57.45692605788912</v>
       </c>
       <c r="I46" t="n">
-        <v>19.40176932280595</v>
+        <v>35.29664163906105</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.30026768726187</v>
+        <v>26.19514000351697</v>
       </c>
       <c r="S46" t="n">
-        <v>88.42621119278918</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>121.0001495269613</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U46" t="n">
-        <v>170.2226920540311</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9578399408971</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
-        <v>168.1353862616472</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>119.3778072083598</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5192287850361</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>824.6772945690823</v>
+        <v>1245.131746120639</v>
       </c>
       <c r="C2" t="n">
-        <v>431.5017930720128</v>
+        <v>851.9562446235695</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5017930720128</v>
+        <v>466.5151158402373</v>
       </c>
       <c r="E2" t="n">
-        <v>431.5017930720128</v>
+        <v>466.5151158402373</v>
       </c>
       <c r="F2" t="n">
-        <v>50.10451683441876</v>
+        <v>453.6610814106191</v>
       </c>
       <c r="G2" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H2" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I2" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J2" t="n">
-        <v>185.6319382716541</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K2" t="n">
-        <v>544.614294299116</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="L2" t="n">
-        <v>1037.934586017645</v>
+        <v>533.8186176171512</v>
       </c>
       <c r="M2" t="n">
-        <v>1545.088882382616</v>
+        <v>898.8643509023869</v>
       </c>
       <c r="N2" t="n">
-        <v>1545.088882382616</v>
+        <v>1400.031133897838</v>
       </c>
       <c r="O2" t="n">
-        <v>1985.128483274945</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="P2" t="n">
-        <v>1985.128483274945</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="Q2" t="n">
-        <v>2049.1082681413</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R2" t="n">
-        <v>2011.115354426821</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="S2" t="n">
-        <v>2011.115354426821</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="T2" t="n">
-        <v>2011.115354426821</v>
+        <v>1763.422778776053</v>
       </c>
       <c r="U2" t="n">
-        <v>2011.115354426821</v>
+        <v>1763.422778776053</v>
       </c>
       <c r="V2" t="n">
-        <v>2011.115354426821</v>
+        <v>1763.422778776053</v>
       </c>
       <c r="W2" t="n">
-        <v>2011.115354426821</v>
+        <v>1763.422778776053</v>
       </c>
       <c r="X2" t="n">
-        <v>1621.662749359878</v>
+        <v>1763.422778776053</v>
       </c>
       <c r="Y2" t="n">
-        <v>1225.172040280479</v>
+        <v>1645.626491832036</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.1387163056947</v>
+        <v>739.9269295188037</v>
       </c>
       <c r="C3" t="n">
-        <v>379.484485865787</v>
+        <v>589.2726990788959</v>
       </c>
       <c r="D3" t="n">
-        <v>249.3955184872673</v>
+        <v>459.1837317003763</v>
       </c>
       <c r="E3" t="n">
-        <v>112.949027598155</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>40.98216536282599</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>40.98216536282599</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>40.98216536282599</v>
+        <v>89.8855798867107</v>
       </c>
       <c r="I3" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J3" t="n">
-        <v>154.0971475825534</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K3" t="n">
-        <v>473.8362936447798</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>473.8362936447798</v>
+        <v>843.803557859162</v>
       </c>
       <c r="M3" t="n">
-        <v>980.9905900097515</v>
+        <v>843.803557859162</v>
       </c>
       <c r="N3" t="n">
-        <v>1409.121807870011</v>
+        <v>883.7630516643759</v>
       </c>
       <c r="O3" t="n">
-        <v>1409.121807870011</v>
+        <v>1384.929834659827</v>
       </c>
       <c r="P3" t="n">
-        <v>1814.743176586409</v>
+        <v>1790.551203376224</v>
       </c>
       <c r="Q3" t="n">
-        <v>2049.1082681413</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R3" t="n">
-        <v>2025.191225039364</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="S3" t="n">
-        <v>1890.260547939233</v>
+        <v>1889.985617830984</v>
       </c>
       <c r="T3" t="n">
-        <v>1713.276736138141</v>
+        <v>1713.001806029892</v>
       </c>
       <c r="U3" t="n">
-        <v>1503.213592816783</v>
+        <v>1713.001806029892</v>
       </c>
       <c r="V3" t="n">
-        <v>1280.67359118785</v>
+        <v>1490.461804400959</v>
       </c>
       <c r="W3" t="n">
-        <v>1050.556345321137</v>
+        <v>1260.344558534246</v>
       </c>
       <c r="X3" t="n">
-        <v>861.2492676711488</v>
+        <v>1071.037480884258</v>
       </c>
       <c r="Y3" t="n">
-        <v>681.9350507466561</v>
+        <v>891.7232639597651</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238.1717153124889</v>
+        <v>392.1162140719446</v>
       </c>
       <c r="C4" t="n">
-        <v>238.1717153124889</v>
+        <v>221.9110961379338</v>
       </c>
       <c r="D4" t="n">
-        <v>238.1717153124889</v>
+        <v>66.27798304044853</v>
       </c>
       <c r="E4" t="n">
-        <v>82.61290317169136</v>
+        <v>66.27798304044853</v>
       </c>
       <c r="F4" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="G4" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H4" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I4" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J4" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K4" t="n">
-        <v>122.8172064727679</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>286.9448463465676</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>473.2364246848316</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>656.4260587160409</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>819.1308257577489</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>939.0069915343274</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.4291879043784</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>942.4291879043784</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S4" t="n">
-        <v>942.4291879043784</v>
+        <v>615.2282752553012</v>
       </c>
       <c r="T4" t="n">
-        <v>706.7101360726125</v>
+        <v>615.2282752553012</v>
       </c>
       <c r="U4" t="n">
-        <v>706.7101360726125</v>
+        <v>615.2282752553012</v>
       </c>
       <c r="V4" t="n">
-        <v>706.7101360726125</v>
+        <v>615.2282752553012</v>
       </c>
       <c r="W4" t="n">
-        <v>423.3797340037901</v>
+        <v>615.2282752553012</v>
       </c>
       <c r="X4" t="n">
-        <v>423.3797340037901</v>
+        <v>615.2282752553012</v>
       </c>
       <c r="Y4" t="n">
-        <v>423.3797340037901</v>
+        <v>392.1162140719446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1333.45952668589</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.45952668589</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="D5" t="n">
-        <v>1333.45952668589</v>
+        <v>1601.482252433304</v>
       </c>
       <c r="E5" t="n">
-        <v>1333.45952668589</v>
+        <v>1198.898727549849</v>
       </c>
       <c r="F5" t="n">
-        <v>916.5650882158674</v>
+        <v>782.0042890798267</v>
       </c>
       <c r="G5" t="n">
-        <v>503.4023327038705</v>
+        <v>368.8415335678298</v>
       </c>
       <c r="H5" t="n">
-        <v>179.3192822703612</v>
+        <v>178.8354428061575</v>
       </c>
       <c r="I5" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J5" t="n">
-        <v>101.4397828004988</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>101.4397828004988</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="L5" t="n">
-        <v>594.7600745190276</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="M5" t="n">
-        <v>1101.914370883999</v>
+        <v>686.3148818029014</v>
       </c>
       <c r="N5" t="n">
-        <v>1609.068667248971</v>
+        <v>1187.481664798352</v>
       </c>
       <c r="O5" t="n">
-        <v>2049.1082681413</v>
+        <v>1627.521265690681</v>
       </c>
       <c r="P5" t="n">
-        <v>2049.1082681413</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="Q5" t="n">
-        <v>2049.1082681413</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R5" t="n">
-        <v>2049.1082681413</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="S5" t="n">
-        <v>2049.1082681413</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="T5" t="n">
-        <v>2049.1082681413</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="U5" t="n">
-        <v>2049.1082681413</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="V5" t="n">
-        <v>2049.1082681413</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="W5" t="n">
-        <v>1733.954272397287</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="X5" t="n">
-        <v>1733.954272397287</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1733.954272397287</v>
+        <v>1986.923381216637</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689.6939180629491</v>
+        <v>839.8643090386532</v>
       </c>
       <c r="C6" t="n">
-        <v>689.6939180629491</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D6" t="n">
-        <v>559.6049506844295</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E6" t="n">
-        <v>423.1584597953172</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F6" t="n">
-        <v>298.726653678449</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G6" t="n">
-        <v>178.6668357503135</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>90.3694193509144</v>
+        <v>89.8855798867107</v>
       </c>
       <c r="I6" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J6" t="n">
-        <v>154.0971475825534</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K6" t="n">
-        <v>473.8362936447798</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>901.9675115050399</v>
+        <v>843.803557859162</v>
       </c>
       <c r="M6" t="n">
-        <v>901.9675115050399</v>
+        <v>1289.384420380773</v>
       </c>
       <c r="N6" t="n">
-        <v>901.9675115050399</v>
+        <v>1289.384420380773</v>
       </c>
       <c r="O6" t="n">
-        <v>1409.121807870011</v>
+        <v>1790.551203376224</v>
       </c>
       <c r="P6" t="n">
-        <v>1814.743176586409</v>
+        <v>1790.551203376224</v>
       </c>
       <c r="Q6" t="n">
-        <v>2049.1082681413</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R6" t="n">
-        <v>2049.1082681413</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="S6" t="n">
-        <v>2049.1082681413</v>
+        <v>1889.985617830984</v>
       </c>
       <c r="T6" t="n">
-        <v>1872.124456340208</v>
+        <v>1713.001806029892</v>
       </c>
       <c r="U6" t="n">
-        <v>1662.06131301885</v>
+        <v>1713.001806029892</v>
       </c>
       <c r="V6" t="n">
-        <v>1439.521311389917</v>
+        <v>1490.461804400959</v>
       </c>
       <c r="W6" t="n">
-        <v>1209.404065523204</v>
+        <v>1260.344558534246</v>
       </c>
       <c r="X6" t="n">
-        <v>1020.096987873215</v>
+        <v>1071.037480884258</v>
       </c>
       <c r="Y6" t="n">
-        <v>840.7827709487226</v>
+        <v>891.7232639597651</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>509.5000253881358</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="C7" t="n">
-        <v>509.5000253881358</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="D7" t="n">
-        <v>353.8669122906505</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="E7" t="n">
-        <v>198.308100149853</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="F7" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="G7" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H7" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I7" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J7" t="n">
-        <v>40.98216536282599</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K7" t="n">
-        <v>122.8172064727679</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>286.9448463465676</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>473.2364246848316</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>656.4260587160409</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>819.1308257577489</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>939.0069915343274</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.4291879043784</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>942.4291879043784</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S7" t="n">
-        <v>739.6131040869277</v>
+        <v>875.2468649047196</v>
       </c>
       <c r="T7" t="n">
-        <v>509.5000253881358</v>
+        <v>875.2468649047196</v>
       </c>
       <c r="U7" t="n">
-        <v>509.5000253881358</v>
+        <v>589.8080731466205</v>
       </c>
       <c r="V7" t="n">
-        <v>509.5000253881358</v>
+        <v>323.8287279674446</v>
       </c>
       <c r="W7" t="n">
-        <v>509.5000253881358</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="X7" t="n">
-        <v>509.5000253881358</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="Y7" t="n">
-        <v>509.5000253881358</v>
+        <v>40.4983258986223</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>744.4429209282987</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="C8" t="n">
-        <v>351.2674194312293</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="D8" t="n">
-        <v>351.2674194312293</v>
+        <v>1177.841368658538</v>
       </c>
       <c r="E8" t="n">
-        <v>351.2674194312293</v>
+        <v>1177.841368658538</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>760.9469301885155</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4814,7 +4814,7 @@
         <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
         <v>2365.64850507718</v>
@@ -4838,16 +4838,16 @@
         <v>1905.389306738351</v>
       </c>
       <c r="V8" t="n">
-        <v>1905.389306738351</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W8" t="n">
-        <v>1534.390271706639</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="X8" t="n">
-        <v>1144.937666639696</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="Y8" t="n">
-        <v>1144.937666639696</v>
+        <v>1563.28249744187</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>373.0769001763519</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>792.4395420413579</v>
+        <v>892.5960141514679</v>
       </c>
       <c r="T10" t="n">
-        <v>792.4395420413579</v>
+        <v>892.5960141514679</v>
       </c>
       <c r="U10" t="n">
-        <v>792.4395420413579</v>
+        <v>607.1572223933688</v>
       </c>
       <c r="V10" t="n">
-        <v>792.4395420413579</v>
+        <v>607.1572223933688</v>
       </c>
       <c r="W10" t="n">
-        <v>792.4395420413579</v>
+        <v>607.1572223933688</v>
       </c>
       <c r="X10" t="n">
-        <v>558.3592198243409</v>
+        <v>373.0769001763519</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>373.0769001763519</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1743.242889185566</v>
+        <v>1598.67307041405</v>
       </c>
       <c r="C11" t="n">
-        <v>1445.008068975685</v>
+        <v>1300.438250204169</v>
       </c>
       <c r="D11" t="n">
-        <v>1154.507621479541</v>
+        <v>1009.937802708025</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784259</v>
+        <v>702.2949591117581</v>
       </c>
       <c r="F11" t="n">
-        <v>652.880006695592</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707835</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244625</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3034.383511434015</v>
+        <v>3065.719409586356</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2937.159488432961</v>
       </c>
       <c r="U11" t="n">
-        <v>2873.571463155802</v>
+        <v>2776.347440154748</v>
       </c>
       <c r="V11" t="n">
-        <v>2626.405335146509</v>
+        <v>2776.347440154748</v>
       </c>
       <c r="W11" t="n">
-        <v>2350.346981401985</v>
+        <v>2500.289086410224</v>
       </c>
       <c r="X11" t="n">
-        <v>2350.346981401985</v>
+        <v>2205.777162630469</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.796953609774</v>
+        <v>1904.227134838259</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082783</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979808</v>
+        <v>357.1274984979814</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311669</v>
+        <v>160.8107415311672</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.242993404583</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
         <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852107</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553822</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1320.171044252417</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C14" t="n">
-        <v>1021.936224042536</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D14" t="n">
-        <v>731.4357765463917</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>731.4357765463917</v>
+        <v>931.4373282580791</v>
       </c>
       <c r="F14" t="n">
-        <v>409.4820193635578</v>
+        <v>609.4835710752452</v>
       </c>
       <c r="G14" t="n">
-        <v>91.25994513874933</v>
+        <v>291.2614968504367</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.82359028062</v>
+        <v>2977.396464052382</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>2816.584415774169</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993115</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.78706024859</v>
+        <v>2293.359934020351</v>
       </c>
       <c r="X14" t="n">
-        <v>1927.275136468836</v>
+        <v>2129.365467352582</v>
       </c>
       <c r="Y14" t="n">
-        <v>1625.725108676625</v>
+        <v>1827.815439560371</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
         <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979812</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798495</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.396746836251</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M16" t="n">
         <v>836.8050913469765</v>
@@ -5455,28 +5455,28 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
         <v>583.3517043592133</v>
@@ -5504,28 +5504,28 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5601,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5735,7 +5735,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
         <v>542.6718405099316</v>
@@ -5744,16 +5744,16 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5838,16 +5838,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5917,16 +5917,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6148,22 +6148,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1877.542679919435</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1579.307859709554</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1288.80741221341</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>981.1645686171432</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>659.2108114343093</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G26" t="n">
-        <v>340.9887372095009</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H26" t="n">
-        <v>111.84636806318</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>68.44993244283316</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>213.0997053516613</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>640.3742631191268</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1226.745916567229</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1772.74681661181</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2300.558100249272</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2740.5977011416</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P26" t="n">
-        <v>3181.836555002696</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3366.682115143644</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3422.496622141658</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3350.923748369897</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3222.363827216502</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3061.551778938288</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>2814.385650928995</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.158695915609</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2484.646772135854</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2183.096744343644</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.8159155828641</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C27" t="n">
-        <v>717.1616851429563</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D27" t="n">
-        <v>587.0727177644367</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E27" t="n">
-        <v>450.6262268753244</v>
+        <v>455.5411533800415</v>
       </c>
       <c r="F27" t="n">
-        <v>326.1944207584562</v>
+        <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>206.1346028303207</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>117.8371864309216</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>68.44993244283316</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>181.5649146625605</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>501.304060724787</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>984.8701466231003</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>984.8701466231003</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1230.2787245562</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.799007147181</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.420375863579</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.785467418469</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.868424316533</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.937747216402</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.953935415311</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.890792093953</v>
+        <v>1845.80571859867</v>
       </c>
       <c r="V27" t="n">
-        <v>1618.35079046502</v>
+        <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1388.233544598306</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.926466948318</v>
+        <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.612250023825</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.4151716938179</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
-        <v>424.1507350469956</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>363.4583032366986</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8401723830895</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>240.4549188832507</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1415462698847</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6036765185669</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44993244283316</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>131.7275515749691</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>306.6139544144842</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>563.7929560178573</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>843.1358960856945</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.376891846477</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1375.133020617758</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1588.06054812391</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.534106223534</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.5737981433</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.698395613037</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.92002506846</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.421914597549</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.383250705562</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>856.9935299239278</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>717.8538889940992</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.6825090979308</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.542679919437</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1579.307859709554</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1288.80741221341</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>981.1645686171432</v>
+        <v>986.0794951218605</v>
       </c>
       <c r="F29" t="n">
-        <v>659.2108114343093</v>
+        <v>664.1257379390266</v>
       </c>
       <c r="G29" t="n">
-        <v>340.9887372095009</v>
+        <v>345.9036637142182</v>
       </c>
       <c r="H29" t="n">
-        <v>111.84636806318</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>68.44993244283316</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>213.0997053516613</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>572.0820613791232</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1065.402353097652</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
-        <v>1611.403253142233</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2139.214536779695</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2647.546339412027</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3088.785193273122</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3366.682115143644</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3422.496622141658</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3350.923748369897</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3222.363827216502</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3061.551778938288</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>2814.385650928995</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2538.327297184471</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2243.815373404716</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>1942.265345612506</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.8159155828641</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C30" t="n">
-        <v>717.1616851429563</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D30" t="n">
-        <v>587.0727177644367</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E30" t="n">
-        <v>450.6262268753244</v>
+        <v>455.5411533800415</v>
       </c>
       <c r="F30" t="n">
-        <v>326.1944207584562</v>
+        <v>331.1093472631733</v>
       </c>
       <c r="G30" t="n">
-        <v>206.1346028303207</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>117.8371864309216</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>68.44993244283316</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>181.5649146625605</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>501.304060724787</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>984.8701466231003</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>984.8701466231003</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1230.2787245562</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.799007147181</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.420375863579</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.785467418469</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.868424316533</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.937747216402</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.953935415311</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.890792093953</v>
+        <v>1845.80571859867</v>
       </c>
       <c r="V30" t="n">
-        <v>1618.35079046502</v>
+        <v>1623.265716969737</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.233544598306</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.926466948318</v>
+        <v>1203.841393453035</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.612250023825</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.4151716938175</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>424.1507350469951</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D31" t="n">
-        <v>363.4583032366984</v>
+        <v>368.3732297414153</v>
       </c>
       <c r="E31" t="n">
-        <v>302.8401723830893</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>240.4549188832507</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1415462698846</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6036765185669</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44993244283316</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>131.7275515749688</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>306.6139544144837</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L31" t="n">
-        <v>563.7929560178566</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>843.135896085694</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
-        <v>1119.376891846476</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1375.133020617758</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1588.06054812391</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.534106223534</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.573798143299</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.698395613037</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.920025068459</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.421914597549</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.383250705561</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>856.9935299239273</v>
+        <v>861.9084564286446</v>
       </c>
       <c r="X31" t="n">
-        <v>717.8538889940988</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.6825090979305</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414178</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1352.560722599517</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498593</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975456</v>
+        <v>890.2201666674343</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099318</v>
+        <v>590.5275805474766</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803435</v>
+        <v>294.5666773855444</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924224</v>
+        <v>87.68547930209951</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>685.0518791692173</v>
       </c>
       <c r="L32" t="n">
-        <v>1059.071548358934</v>
+        <v>1280.625900384606</v>
       </c>
       <c r="M32" t="n">
-        <v>1605.072448403515</v>
+        <v>1826.626800429186</v>
       </c>
       <c r="N32" t="n">
-        <v>2132.883732040977</v>
+        <v>2354.438084066649</v>
       </c>
       <c r="O32" t="n">
-        <v>2572.923332933306</v>
+        <v>2794.477684958977</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064828</v>
+        <v>3142.665177090499</v>
       </c>
       <c r="Q32" t="n">
-        <v>3105.956385205776</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205777</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829236</v>
+        <v>3278.199034522563</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.295701071061</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188068</v>
+        <v>3033.349407216708</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573995</v>
+        <v>2808.444450270291</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224691</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840157</v>
+        <v>2282.396514871764</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443166</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>861.4851108441464</v>
+        <v>865.9161978846599</v>
       </c>
       <c r="C33" t="n">
-        <v>710.8308804042387</v>
+        <v>715.2619674447521</v>
       </c>
       <c r="D33" t="n">
-        <v>580.741913025719</v>
+        <v>585.1730000662325</v>
       </c>
       <c r="E33" t="n">
-        <v>444.2954221366068</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>319.8636160197386</v>
+        <v>324.294703060252</v>
       </c>
       <c r="G33" t="n">
-        <v>199.803798091603</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>111.5063816922039</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411553</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>978.5393418843826</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2380.454662679751</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2356.537619577816</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2221.606942477685</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2044.623130676593</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1834.559987355235</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1612.019985726302</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1381.902739859589</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1192.595662209601</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1013.281445285108</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885594</v>
+        <v>341.6872565554797</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369571</v>
+        <v>288.6839909715336</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218803</v>
+        <v>250.252730224113</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634913</v>
+        <v>211.8957704333801</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588727</v>
+        <v>171.7716879964177</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072673</v>
+        <v>120.7194864459278</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462918</v>
+        <v>82.44278775748644</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>151.6460076354898</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>233.4810487454317</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>397.6086886192314</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>583.9002669574954</v>
       </c>
       <c r="N34" t="n">
-        <v>806.6193906797589</v>
+        <v>881.959436477003</v>
       </c>
       <c r="O34" t="n">
-        <v>974.9038003296507</v>
+        <v>1088.287753884382</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.779966106229</v>
+        <v>1323.033455149259</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.20216247628</v>
+        <v>1326.45565151931</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.20216247628</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.062815341238</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918806</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>769.25844511619</v>
+        <v>947.3881441448295</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194227</v>
+        <v>798.6106513157184</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330088</v>
+        <v>632.4821015969607</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984004</v>
+        <v>515.6036317300084</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974523</v>
+        <v>409.6934228967164</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,13 +6974,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,19 +7102,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1741.319894185573</v>
+        <v>1639.225066965239</v>
       </c>
       <c r="C41" t="n">
-        <v>1461.641071260712</v>
+        <v>1343.490817458303</v>
       </c>
       <c r="D41" t="n">
-        <v>1189.696621049589</v>
+        <v>1055.490940665104</v>
       </c>
       <c r="E41" t="n">
-        <v>900.6097747383427</v>
+        <v>750.3486677717819</v>
       </c>
       <c r="F41" t="n">
-        <v>597.2120148405295</v>
+        <v>645.3782945867576</v>
       </c>
       <c r="G41" t="n">
-        <v>297.5459379007416</v>
+        <v>329.6567910648939</v>
       </c>
       <c r="H41" t="n">
-        <v>86.95956603944167</v>
+        <v>103.0149926215176</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3052.939508719036</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2942.935584850662</v>
+        <v>2910.824731686509</v>
       </c>
       <c r="U41" t="n">
-        <v>2844.770274786188</v>
+        <v>2752.513254111241</v>
       </c>
       <c r="V41" t="n">
-        <v>2844.770274786188</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W41" t="n">
-        <v>2587.267918326685</v>
+        <v>2234.289913763313</v>
       </c>
       <c r="X41" t="n">
-        <v>2311.31199183195</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y41" t="n">
-        <v>2028.317961324761</v>
+        <v>1942.278560686503</v>
       </c>
     </row>
     <row r="42">
@@ -7500,13 +7500,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.1923859599555</v>
+        <v>475.5803720344871</v>
       </c>
       <c r="C43" t="n">
-        <v>306.4839465981538</v>
+        <v>402.8165060906094</v>
       </c>
       <c r="D43" t="n">
-        <v>264.3475120728775</v>
+        <v>344.6246449832572</v>
       </c>
       <c r="E43" t="n">
-        <v>222.285378504289</v>
+        <v>286.5070848325928</v>
       </c>
       <c r="F43" t="n">
-        <v>178.456122289471</v>
+        <v>226.6224020356988</v>
       </c>
       <c r="G43" t="n">
-        <v>123.6987469611256</v>
+        <v>155.8096001252775</v>
       </c>
       <c r="H43" t="n">
-        <v>81.7168744948286</v>
+        <v>97.77230107690454</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>305.1847683676788</v>
       </c>
       <c r="L43" t="n">
-        <v>419.3199033564792</v>
+        <v>564.8145793170081</v>
       </c>
       <c r="M43" t="n">
-        <v>605.6114816947432</v>
+        <v>846.6083287308015</v>
       </c>
       <c r="N43" t="n">
-        <v>788.8011157259525</v>
+        <v>1125.30013383754</v>
       </c>
       <c r="O43" t="n">
-        <v>1035.532793440612</v>
+        <v>1383.507071954778</v>
       </c>
       <c r="P43" t="n">
-        <v>1266.647053885813</v>
+        <v>1539.26980279212</v>
       </c>
       <c r="Q43" t="n">
-        <v>1381.307344924486</v>
+        <v>1638.194170237701</v>
       </c>
       <c r="R43" t="n">
-        <v>1370.903034129272</v>
+        <v>1611.734432860411</v>
       </c>
       <c r="S43" t="n">
-        <v>1281.58362888403</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.361255624473</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U43" t="n">
-        <v>987.4191424385834</v>
+        <v>1180.084261423495</v>
       </c>
       <c r="V43" t="n">
-        <v>834.9364758316167</v>
+        <v>1011.546168234452</v>
       </c>
       <c r="W43" t="n">
-        <v>665.1027523350033</v>
+        <v>825.6570181557627</v>
       </c>
       <c r="X43" t="n">
-        <v>544.5191086901954</v>
+        <v>689.0179479288789</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.9037260790478</v>
+        <v>563.3471387356553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1741.319894185573</v>
+        <v>1853.707880260105</v>
       </c>
       <c r="C44" t="n">
-        <v>1461.641071260713</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D44" t="n">
-        <v>1189.69662104959</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E44" t="n">
-        <v>900.609774738343</v>
+        <v>964.8314810666467</v>
       </c>
       <c r="F44" t="n">
-        <v>597.2120148405298</v>
+        <v>645.3782945867576</v>
       </c>
       <c r="G44" t="n">
-        <v>297.545937900742</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H44" t="n">
-        <v>86.95956603944168</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7667,31 +7667,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3073.380405510461</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3073.380405510461</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>3073.380405510461</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2844.770274786189</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2587.267918326685</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2311.311991831951</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>2028.317961324761</v>
+        <v>1853.707880260105</v>
       </c>
     </row>
     <row r="45">
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.1923859599555</v>
+        <v>475.5803720344865</v>
       </c>
       <c r="C46" t="n">
-        <v>306.4839465981538</v>
+        <v>402.8165060906089</v>
       </c>
       <c r="D46" t="n">
-        <v>264.3475120728775</v>
+        <v>344.6246449832568</v>
       </c>
       <c r="E46" t="n">
-        <v>222.2853785042891</v>
+        <v>286.5070848325925</v>
       </c>
       <c r="F46" t="n">
-        <v>178.456122289471</v>
+        <v>226.6224020356986</v>
       </c>
       <c r="G46" t="n">
-        <v>123.6987469611256</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>81.71687449482862</v>
+        <v>97.77230107690447</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>419.3199033564792</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>605.6114816947432</v>
+        <v>846.6083287308019</v>
       </c>
       <c r="N46" t="n">
-        <v>788.8011157259525</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O46" t="n">
-        <v>1035.532793440612</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1266.647053885813</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1381.307344924486</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1370.903034129272</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.58362888403</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.361255624473</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>987.4191424385834</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
-        <v>834.9364758316167</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>665.1027523350033</v>
+        <v>825.6570181557618</v>
       </c>
       <c r="X46" t="n">
-        <v>544.5191086901954</v>
+        <v>689.017947928878</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.9037260790478</v>
+        <v>563.3471387356545</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>662.0021186330521</v>
+        <v>518.4581155222079</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>655.3475650705628</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>209.1247437379424</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>604.6641890846367</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>517.8278884705909</v>
+        <v>125.7352379099383</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>598.9166326216676</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>178.7481383844398</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>662.0021186330521</v>
+        <v>655.954125330506</v>
       </c>
       <c r="N5" t="n">
-        <v>661.395558373109</v>
+        <v>655.3475650705628</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>364.997880674749</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>522.5161224733425</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>542.4688013640709</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>604.9646259242138</v>
+        <v>598.9166326216676</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8462,10 +8462,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>633.9592855728719</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8538,7 +8538,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>422.8212561536984</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8547,7 +8547,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,19 +8769,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>464.9323088406971</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9963,7 +9963,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118431</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10838,7 +10838,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>126.6892961352003</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414334</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>31.02253917081658</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>198.0015361945703</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>129.2122825408661</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
     </row>
     <row r="21">
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>238.4230847438272</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>238.4230847438278</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>212.3379851619161</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25682,10 +25682,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>43.64983351943191</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>226.3240294170299</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.23648782351118</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>108.9038846296906</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>140.8334904832604</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>208.3739888962378</v>
       </c>
     </row>
     <row r="45">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>763289.7744591121</v>
+        <v>762997.6136190101</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>763289.7744591121</v>
+        <v>762997.6136190101</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>729521.6627015801</v>
+        <v>729521.66270158</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753967.4067964454</v>
+        <v>772945.884342054</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753967.4067964453</v>
+        <v>772945.884342054</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751455.9648523116</v>
+        <v>732477.487306703</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751455.9648523116</v>
+        <v>732477.487306703</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>540996.5342800701</v>
+      </c>
+      <c r="C2" t="n">
         <v>540996.53428007</v>
       </c>
-      <c r="C2" t="n">
-        <v>540996.5342800701</v>
-      </c>
       <c r="D2" t="n">
-        <v>540996.5342800701</v>
+        <v>540996.5342800703</v>
       </c>
       <c r="E2" t="n">
+        <v>508428.3680497156</v>
+      </c>
+      <c r="F2" t="n">
         <v>508428.3680497155</v>
       </c>
-      <c r="F2" t="n">
-        <v>508428.3680497156</v>
-      </c>
       <c r="G2" t="n">
-        <v>540996.5342800703</v>
+        <v>540996.5342800706</v>
       </c>
       <c r="H2" t="n">
-        <v>540996.5342800703</v>
+        <v>540996.5342800705</v>
       </c>
       <c r="I2" t="n">
         <v>540996.5342800703</v>
       </c>
       <c r="J2" t="n">
-        <v>526762.6761208647</v>
+        <v>540996.5342800708</v>
       </c>
       <c r="K2" t="n">
-        <v>526762.6761208646</v>
+        <v>540996.534280071</v>
       </c>
       <c r="L2" t="n">
+        <v>540996.5342800702</v>
+      </c>
+      <c r="M2" t="n">
         <v>540996.5342800703</v>
       </c>
-      <c r="M2" t="n">
-        <v>540996.5342800702</v>
-      </c>
       <c r="N2" t="n">
-        <v>540996.5342800705</v>
+        <v>540996.5342800703</v>
       </c>
       <c r="O2" t="n">
-        <v>524879.0946627639</v>
+        <v>510645.2365035571</v>
       </c>
       <c r="P2" t="n">
-        <v>524879.0946627639</v>
+        <v>510645.2365035571</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171675.8275360792</v>
+        <v>169649.00587655</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24581.72344984816</v>
+        <v>26460.41160941808</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377122</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301438</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720423</v>
+        <v>215329.5897923935</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602868</v>
+        <v>46725.80335481241</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989166</v>
+        <v>43782.97194555665</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31699.45768316087</v>
+        <v>18983.55983015671</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217634.7937817576</v>
+        <v>218972.6240101877</v>
       </c>
       <c r="C4" t="n">
-        <v>217634.7937817575</v>
+        <v>218972.6240101877</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26427,7 +26427,7 @@
         <v>148856.2633404649</v>
       </c>
       <c r="F4" t="n">
-        <v>148856.2633404649</v>
+        <v>148856.2633404648</v>
       </c>
       <c r="G4" t="n">
         <v>173460.5839839468</v>
@@ -26439,13 +26439,13 @@
         <v>173460.5839839468</v>
       </c>
       <c r="J4" t="n">
-        <v>163129.801227677</v>
+        <v>174211.0764483299</v>
       </c>
       <c r="K4" t="n">
-        <v>163129.801227677</v>
+        <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173460.5839839468</v>
+        <v>173754.827184614</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26454,10 +26454,10 @@
         <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
-        <v>161283.0937590332</v>
+        <v>150530.8792394561</v>
       </c>
       <c r="P4" t="n">
-        <v>161283.0937590333</v>
+        <v>150530.8792394561</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64774.04567574775</v>
+        <v>64406.32768295294</v>
       </c>
       <c r="C5" t="n">
-        <v>64774.04567574775</v>
+        <v>64406.32768295294</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,7 +26479,7 @@
         <v>55112.28950890911</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26491,25 +26491,25 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>59923.7011103345</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>59923.7011103345</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551967</v>
+        <v>60332.67530588341</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>56656.67380330597</v>
+        <v>55320.40778255071</v>
       </c>
       <c r="P5" t="n">
-        <v>56656.67380330597</v>
+        <v>55320.40778255071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86911.86728648552</v>
+        <v>87968.57671037942</v>
       </c>
       <c r="C6" t="n">
-        <v>258587.6948225648</v>
+        <v>257617.5825869293</v>
       </c>
       <c r="D6" t="n">
-        <v>246699.4194951356</v>
+        <v>244820.7313355661</v>
       </c>
       <c r="E6" t="n">
-        <v>174006.8840626294</v>
+        <v>173898.3235085283</v>
       </c>
       <c r="F6" t="n">
-        <v>304459.8152003416</v>
+        <v>304351.2546462405</v>
       </c>
       <c r="G6" t="n">
-        <v>280271.2251075896</v>
+        <v>280271.2251075897</v>
       </c>
       <c r="H6" t="n">
-        <v>309366.1809806039</v>
+        <v>309366.180980604</v>
       </c>
       <c r="I6" t="n">
         <v>309366.1809806039</v>
       </c>
       <c r="J6" t="n">
-        <v>102871.6757108109</v>
+        <v>87796.82278542791</v>
       </c>
       <c r="K6" t="n">
-        <v>303709.1737828531</v>
+        <v>303126.4125778216</v>
       </c>
       <c r="L6" t="n">
-        <v>251176.2692345752</v>
+        <v>260183.2284347604</v>
       </c>
       <c r="M6" t="n">
-        <v>263244.2597407121</v>
+        <v>265583.2090350473</v>
       </c>
       <c r="N6" t="n">
-        <v>309366.180980604</v>
+        <v>309366.1809806039</v>
       </c>
       <c r="O6" t="n">
-        <v>275239.8694172638</v>
+        <v>285709.2186588051</v>
       </c>
       <c r="P6" t="n">
-        <v>306939.3271004246</v>
+        <v>304692.7784889619</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="P2" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353249</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="C4" t="n">
-        <v>512.2770670353249</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>855.6241555354144</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>855.6241555354144</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014442</v>
+        <v>831.877684307862</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126798</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253585</v>
+        <v>58.40725419351551</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14.33013548902044</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.62432210395109</v>
+        <v>23.72944978769588</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353249</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.1350592339702</v>
+        <v>85.18305253651636</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692952</v>
+        <v>646.8007142757129</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>129.6883820257311</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126798</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>512.2770670353249</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>79.1350592339702</v>
+        <v>85.18305253651636</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>35.14219061010385</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27430,7 +27430,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>275.9074779140278</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>98.93800572465101</v>
       </c>
       <c r="F3" t="n">
-        <v>51.9402944427238</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>114.5382450083801</v>
+        <v>130.2308148687488</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>132.7361900751186</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27676,7 +27676,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>55.28658889482261</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7004067396360085</v>
+        <v>98.93800572465102</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27822,19 +27822,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>134.7564242791754</v>
       </c>
       <c r="T7" t="n">
-        <v>5.549913401644204</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>257.7954629442698</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>23.37572739994897</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>168.692656357304</v>
+        <v>145.1855842725642</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28746,28 +28746,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5.636002634528545</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28989,19 +28989,19 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29220,25 +29220,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.636002634528339</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.636002634528595</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29296,25 +29296,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>68.98202195959971</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
+        <v>30.2722376590126</v>
+      </c>
+      <c r="M26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>68.98202195959982</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>103.2865954513734</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>116.029833826564</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="O34" t="n">
-        <v>5.636002634529035</v>
+        <v>44.06419228855628</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.3599693155844</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>37.61298457733328</v>
@@ -30174,22 +30174,22 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5.636002634528467</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30277,7 +30277,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
         <v>130.3599693155844</v>
@@ -30411,22 +30411,22 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634529063</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="C41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="D41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="E41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="F41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="G41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="H41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="I41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="T41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="U41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="V41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="W41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="X41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="C43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="D43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="E43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="F43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="G43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="H43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="I43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="L43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="O43" t="n">
-        <v>84.87566734641587</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="P43" t="n">
-        <v>112.3617117864869</v>
+        <v>36.24905561693333</v>
       </c>
       <c r="Q43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="R43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="S43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="T43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="U43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="V43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="W43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="X43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023176</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="C44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="D44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="E44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="F44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="G44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="H44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="I44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="T44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="U44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="V44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="W44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="X44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="C46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="D46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="E46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="F46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="G46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="H46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="I46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="L46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>36.24905561693183</v>
       </c>
       <c r="O46" t="n">
-        <v>84.87566734641587</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="P46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Q46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="R46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="S46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="T46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="U46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="V46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="W46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="X46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.3617117864869</v>
+        <v>96.46683947023183</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>512.2770670353249</v>
+        <v>368.7330639244806</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.62604531955026</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>512.2770670353249</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>432.4557756164243</v>
+        <v>40.36312505577164</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>61.06830044209374</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>512.2770670353249</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="N5" t="n">
-        <v>512.2770670353249</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>214.6964334338238</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>432.4557756164243</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>450.0816793147591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>512.2770670353249</v>
+        <v>506.2290737327787</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35182,10 +35182,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>484.8407942350878</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>330.4341341043865</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35267,7 +35267,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610694</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,19 +36285,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716074</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133831</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,10 +36531,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>431.5904623913793</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>513.4664673053861</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>478.6382742583436</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>601.5899204195844</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>85.9553463544049</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37236,13 +37236,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>315.4000036905431</v>
+        <v>301.0698682015228</v>
       </c>
       <c r="O34" t="n">
-        <v>169.9842521716079</v>
+        <v>208.4124418256351</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645222</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37470,22 +37470,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716073</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.809314087321</v>
+        <v>316.4712935610694</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>66.39235199807268</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>179.1284971570417</v>
       </c>
       <c r="L43" t="n">
-        <v>278.1472066085069</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>284.6401509230237</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>249.2239168834947</v>
+        <v>260.8150890073106</v>
       </c>
       <c r="P43" t="n">
-        <v>233.4487479244451</v>
+        <v>157.3360917548915</v>
       </c>
       <c r="Q43" t="n">
-        <v>115.8184757966394</v>
+        <v>99.92360348038424</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38029,7 +38029,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>66.39235199807277</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>278.1472066085069</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>221.2890899918906</v>
       </c>
       <c r="O46" t="n">
-        <v>249.2239168834947</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>233.4487479244451</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>115.8184757966394</v>
+        <v>99.92360348038432</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
